--- a/biology/Zoologie/Calao_à_bec_jaune/Calao_à_bec_jaune.xlsx
+++ b/biology/Zoologie/Calao_à_bec_jaune/Calao_à_bec_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_bec_jaune</t>
+          <t>Calao_à_bec_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tockus flavirostris
 Le Calao à bec jaune (Tockus flavirostris) est une espèce d'oiseau africain appartenant à la famille des Bucerotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_bec_jaune</t>
+          <t>Calao_à_bec_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède un plumage bicolore noir et blanc ainsi qu'un imposant bec jaune qu'il manie avec une extrême précision. Il mesure environ 55 cm de long pour un poids variant approximativement entre 1,5 et 2,5 kg.
 Il se différencie du calao leucomèle par un pourtour noir autour des yeux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_bec_jaune</t>
+          <t>Calao_à_bec_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente particulièrement les zones de savane ouverte (Commiphora) en Afrique de l'Est.
 </t>
